--- a/data/phones_2023.xlsx
+++ b/data/phones_2023.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttitanskanen/Github/Syntyvyyden-tekij-t/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0DD17-FAF8-9D4B-A0CE-61DABB577DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B15316-EC0F-994E-B69A-19DF75F78BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="760" windowWidth="22640" windowHeight="14600" xr2:uid="{7A7B6AD2-3A7D-5D45-9F88-9535E8DFA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +59,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -149,8 +146,8 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -170,697 +167,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="alypuhelin"/>
-      <sheetName val="pew"/>
-      <sheetName val="data"/>
-      <sheetName val="2012"/>
-      <sheetName val="2013"/>
-      <sheetName val="Yhteenveto"/>
-      <sheetName val="2010"/>
-      <sheetName val="2014"/>
-      <sheetName val="2015"/>
-      <sheetName val="2016"/>
-      <sheetName val="2017"/>
-      <sheetName val="2011"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>alypuhelin</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>some_25_34</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>some_35_44</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1989</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1990</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1991</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1992</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1993</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1994</v>
-          </cell>
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1995</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1996</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1997</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1998</v>
-          </cell>
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1999</v>
-          </cell>
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2000</v>
-          </cell>
-          <cell r="B13">
-            <v>0</v>
-          </cell>
-          <cell r="C13">
-            <v>0.10062500000000001</v>
-          </cell>
-          <cell r="D13">
-            <v>5.6875000000000009E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2001</v>
-          </cell>
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>0.20125000000000001</v>
-          </cell>
-          <cell r="D14">
-            <v>0.11375000000000002</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>2002</v>
-          </cell>
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>0.40250000000000002</v>
-          </cell>
-          <cell r="D15">
-            <v>0.22750000000000004</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2003</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>0.80500000000000005</v>
-          </cell>
-          <cell r="D16">
-            <v>0.45500000000000007</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2004</v>
-          </cell>
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-          <cell r="C17">
-            <v>1.61</v>
-          </cell>
-          <cell r="D17">
-            <v>0.91000000000000014</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2005</v>
-          </cell>
-          <cell r="B18">
-            <v>0.60000000000000142</v>
-          </cell>
-          <cell r="C18">
-            <v>3.22</v>
-          </cell>
-          <cell r="D18">
-            <v>1.8200000000000003</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2006</v>
-          </cell>
-          <cell r="B19">
-            <v>1.6000000000000014</v>
-          </cell>
-          <cell r="C19">
-            <v>5.0599999999999996</v>
-          </cell>
-          <cell r="D19">
-            <v>2.86</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2007</v>
-          </cell>
-          <cell r="B20">
-            <v>3.6000000000000014</v>
-          </cell>
-          <cell r="C20">
-            <v>8.2799999999999994</v>
-          </cell>
-          <cell r="D20">
-            <v>4.68</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2008</v>
-          </cell>
-          <cell r="B21">
-            <v>6.6000000000000014</v>
-          </cell>
-          <cell r="C21">
-            <v>11.5</v>
-          </cell>
-          <cell r="D21">
-            <v>6.5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2009</v>
-          </cell>
-          <cell r="B22">
-            <v>11.600000000000001</v>
-          </cell>
-          <cell r="C22">
-            <v>17.48</v>
-          </cell>
-          <cell r="D22">
-            <v>9.8800000000000008</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>2010</v>
-          </cell>
-          <cell r="B23">
-            <v>18.600000000000001</v>
-          </cell>
-          <cell r="C23">
-            <v>21.16</v>
-          </cell>
-          <cell r="D23">
-            <v>11.96</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>2011</v>
-          </cell>
-          <cell r="B24">
-            <v>28.6</v>
-          </cell>
-          <cell r="C24">
-            <v>23</v>
-          </cell>
-          <cell r="D24">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>2012</v>
-          </cell>
-          <cell r="B25">
-            <v>38.6</v>
-          </cell>
-          <cell r="C25">
-            <v>21</v>
-          </cell>
-          <cell r="D25">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>2013</v>
-          </cell>
-          <cell r="B26">
-            <v>51.5</v>
-          </cell>
-          <cell r="C26">
-            <v>26</v>
-          </cell>
-          <cell r="D26">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>2014</v>
-          </cell>
-          <cell r="B27">
-            <v>61.5</v>
-          </cell>
-          <cell r="C27">
-            <v>33</v>
-          </cell>
-          <cell r="D27">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>2015</v>
-          </cell>
-          <cell r="B28">
-            <v>68.400000000000006</v>
-          </cell>
-          <cell r="C28">
-            <v>44</v>
-          </cell>
-          <cell r="D28">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>2016</v>
-          </cell>
-          <cell r="B29">
-            <v>74.900000000000006</v>
-          </cell>
-          <cell r="C29">
-            <v>55</v>
-          </cell>
-          <cell r="D29">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>2017</v>
-          </cell>
-          <cell r="B30">
-            <v>79.099999999999994</v>
-          </cell>
-          <cell r="C30">
-            <v>57</v>
-          </cell>
-          <cell r="D30">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>2018</v>
-          </cell>
-          <cell r="B31">
-            <v>81.099999999999994</v>
-          </cell>
-          <cell r="C31">
-            <v>59.85</v>
-          </cell>
-          <cell r="D31">
-            <v>43.050000000000004</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>2019</v>
-          </cell>
-          <cell r="B32">
-            <v>82.6</v>
-          </cell>
-          <cell r="C32">
-            <v>62.842500000000001</v>
-          </cell>
-          <cell r="D32">
-            <v>45.202500000000008</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>2020</v>
-          </cell>
-          <cell r="B33">
-            <v>83.6</v>
-          </cell>
-          <cell r="C33">
-            <v>65.356200000000001</v>
-          </cell>
-          <cell r="D33">
-            <v>47.010600000000011</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2021</v>
-          </cell>
-          <cell r="B34">
-            <v>84.6</v>
-          </cell>
-          <cell r="C34">
-            <v>67.970448000000005</v>
-          </cell>
-          <cell r="D34">
-            <v>48.891024000000016</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2022</v>
-          </cell>
-          <cell r="B35">
-            <v>85.6</v>
-          </cell>
-          <cell r="C35">
-            <v>70.009561440000013</v>
-          </cell>
-          <cell r="D35">
-            <v>50.357754720000017</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2023</v>
-          </cell>
-          <cell r="B36">
-            <v>86.6</v>
-          </cell>
-          <cell r="C36">
-            <v>72.109848283200009</v>
-          </cell>
-          <cell r="D36">
-            <v>51.868487361600017</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2024</v>
-          </cell>
-          <cell r="B37">
-            <v>87.6</v>
-          </cell>
-          <cell r="C37">
-            <v>73.552045248864005</v>
-          </cell>
-          <cell r="D37">
-            <v>52.905857108832016</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2025</v>
-          </cell>
-          <cell r="B38">
-            <v>88.6</v>
-          </cell>
-          <cell r="C38">
-            <v>75.023086153841291</v>
-          </cell>
-          <cell r="D38">
-            <v>53.963974251008658</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2026</v>
-          </cell>
-          <cell r="B39">
-            <v>89.6</v>
-          </cell>
-          <cell r="C39">
-            <v>76.523547876918116</v>
-          </cell>
-          <cell r="D39">
-            <v>55.043253736028831</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>2027</v>
-          </cell>
-          <cell r="B40">
-            <v>90.6</v>
-          </cell>
-          <cell r="C40">
-            <v>77.288783355687301</v>
-          </cell>
-          <cell r="D40">
-            <v>55.593686273389118</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>2028</v>
-          </cell>
-          <cell r="B41">
-            <v>91.6</v>
-          </cell>
-          <cell r="C41">
-            <v>78.06167118924418</v>
-          </cell>
-          <cell r="D41">
-            <v>56.149623136123012</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>2029</v>
-          </cell>
-          <cell r="B42">
-            <v>92.6</v>
-          </cell>
-          <cell r="C42">
-            <v>78.842287901136629</v>
-          </cell>
-          <cell r="D42">
-            <v>56.711119367484244</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>2030</v>
-          </cell>
-          <cell r="B43">
-            <v>93.6</v>
-          </cell>
-          <cell r="C43">
-            <v>78.842287901136629</v>
-          </cell>
-          <cell r="D43">
-            <v>56.711119367484244</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2031</v>
-          </cell>
-          <cell r="B44">
-            <v>94.6</v>
-          </cell>
-          <cell r="C44">
-            <v>78.842287901136629</v>
-          </cell>
-          <cell r="D44">
-            <v>56.711119367484244</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>2032</v>
-          </cell>
-          <cell r="B45">
-            <v>95.6</v>
-          </cell>
-          <cell r="C45">
-            <v>78.842287901136629</v>
-          </cell>
-          <cell r="D45">
-            <v>56.711119367484244</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>2033</v>
-          </cell>
-          <cell r="B46">
-            <v>96.6</v>
-          </cell>
-          <cell r="C46">
-            <v>78.842287901136629</v>
-          </cell>
-          <cell r="D46">
-            <v>56.711119367484244</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2034</v>
-          </cell>
-          <cell r="B47">
-            <v>97.6</v>
-          </cell>
-          <cell r="C47">
-            <v>78.842287901136629</v>
-          </cell>
-          <cell r="D47">
-            <v>56.711119367484244</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/phones_2023.xlsx
+++ b/data/phones_2023.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttitanskanen/Github/Syntyvyyden-tekij-t/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B15316-EC0F-994E-B69A-19DF75F78BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A13F11F-F124-2848-98ED-046B6F27923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="760" windowWidth="22640" windowHeight="14600" xr2:uid="{7A7B6AD2-3A7D-5D45-9F88-9535E8DFA96B}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -133,11 +133,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -150,7 +147,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -468,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F44FB-0FF3-F045-B042-806F248D2116}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,744 +489,744 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1989</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1990</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1991</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>1992</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>1993</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>1994</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>1995</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>1996</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>1997</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>1998</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>1999</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>2000</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
         <v>0.10062500000000001</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>5.6875000000000009E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>2001</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
         <v>0.20125000000000001</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.11375000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>2002</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.40250000000000002</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.22750000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>2003</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
         <v>0.80500000000000005</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.45500000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>2004</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <v>1.61</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0.91000000000000014</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>2005</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.60000000000000142</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>3.22</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1.8200000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>2006</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1.6000000000000014</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>5.0599999999999996</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>2.86</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>2007</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>3.6000000000000014</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>8.2799999999999994</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>4.68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>2008</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>6.6000000000000014</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>11.5</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>6.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>2009</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>11.600000000000001</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>17.48</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>9.8800000000000008</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>2010</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>21.16</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>11.96</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>2011</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>28.6</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>2012</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>38.6</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>21</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>2013</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>51.5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>26</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>2014</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>61.5</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>33</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>2015</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>68.400000000000006</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>44</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>2016</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>74.900000000000006</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>55</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="8">
         <v>2017</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>79.099999999999994</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>57</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>41</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>50321</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="8">
         <v>2018</v>
       </c>
-      <c r="B31" s="2">
-        <v>80</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="1">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2">
         <v>53</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>47</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>48775</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>2019</v>
       </c>
       <c r="B32">
         <v>83</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>74</v>
       </c>
-      <c r="D32" s="3">
-        <v>45.202500000000008</v>
+      <c r="D32" s="2">
+        <v>73</v>
       </c>
       <c r="E32">
         <v>45613</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>2020</v>
       </c>
       <c r="B33">
         <v>87</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>85</v>
       </c>
-      <c r="D33" s="3">
-        <v>47.010600000000011</v>
+      <c r="D33" s="2">
+        <v>79</v>
       </c>
       <c r="E33">
         <v>46463</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>2021</v>
       </c>
       <c r="B34">
         <v>88</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>81</v>
       </c>
-      <c r="D34" s="3">
-        <v>73</v>
+      <c r="D34" s="2">
+        <v>72</v>
       </c>
       <c r="E34">
         <v>49594</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>2022</v>
       </c>
       <c r="B35">
         <v>88</v>
       </c>
-      <c r="C35" s="3">
-        <v>80</v>
-      </c>
-      <c r="D35" s="3">
-        <v>79</v>
+      <c r="C35" s="2">
+        <v>80</v>
+      </c>
+      <c r="D35" s="2">
+        <v>76</v>
       </c>
       <c r="E35">
         <v>44933</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="7">
         <v>2023</v>
       </c>
       <c r="B36">
         <f>B35</f>
         <v>88</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f>C35</f>
         <v>80</v>
       </c>
-      <c r="D36" s="3">
-        <v>72</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="D36" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="6">
         <v>48473</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="7">
         <v>2024</v>
       </c>
       <c r="B37">
         <f t="shared" ref="B37:D47" si="0">B36</f>
         <v>88</v>
       </c>
-      <c r="C37" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D37" s="2">
         <v>76</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>48297</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="7">
         <v>2025</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C38" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D38" s="2">
         <f>D37</f>
         <v>76</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>48090</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="7">
         <v>2026</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C39" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D39" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>47863</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="7">
         <v>2027</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C40" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D40" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>47630</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="7">
         <v>2028</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C41" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D41" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>47407</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="7">
         <v>2029</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C42" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D42" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>47205</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="7">
         <v>2030</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C43" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D43" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>47033</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="7">
         <v>2031</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C44" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D44" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>46896</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="7">
         <v>2032</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C45" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D45" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>46793</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="7">
         <v>2033</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C46" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D46" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>46720</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="7">
         <v>2034</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C47" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D47" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>46673</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
